--- a/NFL.xlsx
+++ b/NFL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Pointsbet</t>
   </si>
   <si>
+    <t>AVG</t>
+  </si>
+  <si>
     <t>Pinnacle</t>
   </si>
   <si>
@@ -43,15 +46,27 @@
     <t>Kelly</t>
   </si>
   <si>
+    <t>Spread</t>
+  </si>
+  <si>
     <t>Pittsburgh Steelers Pit</t>
   </si>
   <si>
+    <t>Cincinnati Bengals Cin</t>
+  </si>
+  <si>
     <t>Jacksonville Jaguars Jax</t>
   </si>
   <si>
     <t>Houston Texans Hou</t>
   </si>
   <si>
+    <t>New Orleans Saints No</t>
+  </si>
+  <si>
+    <t>Atlanta Falcons Atl</t>
+  </si>
+  <si>
     <t>Tampa Bay Buccaneers Tb</t>
   </si>
   <si>
@@ -67,19 +82,37 @@
     <t>New England Patriots Ne</t>
   </si>
   <si>
+    <t>New York Giants Nyg Ny</t>
+  </si>
+  <si>
     <t>Cleveland Browns Cle</t>
   </si>
   <si>
     <t>Denver Broncos Den</t>
   </si>
   <si>
+    <t>Los Angeles Rams La Lar</t>
+  </si>
+  <si>
     <t>Arizona Cardinals Ari</t>
   </si>
   <si>
+    <t>Buffalo Bills Buf</t>
+  </si>
+  <si>
+    <t>Philadelphia Eagles Phi</t>
+  </si>
+  <si>
     <t>Kansas City Chiefs Kc</t>
   </si>
   <si>
     <t>Las Vegas Raiders Lv</t>
+  </si>
+  <si>
+    <t>Baltimore Ravens Bal</t>
+  </si>
+  <si>
+    <t>Los Angeles Chargers La Lac</t>
   </si>
   <si>
     <t>Chicago Bears Chi</t>
@@ -470,16 +503,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,440 +540,851 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>-135</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>-125</v>
       </c>
       <c r="D2">
         <v>-127</v>
       </c>
-      <c r="E2">
-        <v>-168</v>
+      <c r="E2" s="2">
+        <v>-118</v>
       </c>
       <c r="F2">
         <v>-130</v>
       </c>
       <c r="G2">
+        <v>-116</v>
+      </c>
+      <c r="H2">
+        <v>-119</v>
+      </c>
+      <c r="I2">
+        <v>0.39</v>
+      </c>
+      <c r="J2">
+        <v>0.46</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>115</v>
+      </c>
+      <c r="C3">
+        <v>105</v>
+      </c>
+      <c r="D3">
+        <v>102</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>110</v>
+      </c>
+      <c r="G3">
+        <v>116</v>
+      </c>
+      <c r="H3">
+        <v>119</v>
+      </c>
+      <c r="I3">
+        <v>-1.83</v>
+      </c>
+      <c r="J3">
+        <v>-1.59</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>-125</v>
+      </c>
+      <c r="C4">
+        <v>-125</v>
+      </c>
+      <c r="D4">
+        <v>-122</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-118</v>
+      </c>
+      <c r="F4">
+        <v>-120</v>
+      </c>
+      <c r="G4">
+        <v>-111</v>
+      </c>
+      <c r="H4">
+        <v>-109</v>
+      </c>
+      <c r="I4">
+        <v>-3.65</v>
+      </c>
+      <c r="J4">
+        <v>-4.31</v>
+      </c>
+      <c r="K4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>105</v>
+      </c>
+      <c r="C5" s="2">
+        <v>105</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>111</v>
+      </c>
+      <c r="H5">
+        <v>109</v>
+      </c>
+      <c r="I5">
+        <v>-1.91</v>
+      </c>
+      <c r="J5">
+        <v>-1.82</v>
+      </c>
+      <c r="K5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>-130</v>
+      </c>
+      <c r="C6">
+        <v>-125</v>
+      </c>
+      <c r="D6">
+        <v>-121</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-120</v>
+      </c>
+      <c r="F6">
+        <v>-125</v>
+      </c>
+      <c r="G6">
+        <v>-113</v>
+      </c>
+      <c r="H6">
+        <v>-114</v>
+      </c>
+      <c r="I6">
+        <v>-2.34</v>
+      </c>
+      <c r="J6">
+        <v>-2.8</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>110</v>
+      </c>
+      <c r="C7">
+        <v>105</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>102</v>
+      </c>
+      <c r="F7">
+        <v>105</v>
+      </c>
+      <c r="G7">
+        <v>113</v>
+      </c>
+      <c r="H7">
+        <v>114</v>
+      </c>
+      <c r="I7">
+        <v>-1.87</v>
+      </c>
+      <c r="J7">
+        <v>-1.7</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>118</v>
+      </c>
+      <c r="C8" s="2">
+        <v>120</v>
+      </c>
+      <c r="D8">
+        <v>116</v>
+      </c>
+      <c r="E8">
+        <v>114</v>
+      </c>
+      <c r="F8">
+        <v>115</v>
+      </c>
+      <c r="G8">
+        <v>126</v>
+      </c>
+      <c r="H8">
+        <v>125</v>
+      </c>
+      <c r="I8">
+        <v>-2.22</v>
+      </c>
+      <c r="J8">
+        <v>-1.85</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>-140</v>
+      </c>
+      <c r="C9">
+        <v>-142</v>
+      </c>
+      <c r="D9">
+        <v>-139</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-134</v>
+      </c>
+      <c r="F9">
+        <v>-140</v>
+      </c>
+      <c r="G9">
         <v>-126</v>
       </c>
-      <c r="H2">
-        <v>0.35</v>
-      </c>
-      <c r="I2">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="H9">
         <v>-125</v>
       </c>
-      <c r="C3">
+      <c r="I9">
+        <v>-2.99</v>
+      </c>
+      <c r="J9">
+        <v>-4</v>
+      </c>
+      <c r="K9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>158</v>
+      </c>
+      <c r="C10">
+        <v>154</v>
+      </c>
+      <c r="D10">
+        <v>155</v>
+      </c>
+      <c r="E10">
+        <v>154</v>
+      </c>
+      <c r="F10">
+        <v>150</v>
+      </c>
+      <c r="G10">
+        <v>166</v>
+      </c>
+      <c r="H10">
+        <v>161</v>
+      </c>
+      <c r="I10">
+        <v>-1.15</v>
+      </c>
+      <c r="J10">
+        <v>-0.73</v>
+      </c>
+      <c r="K10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>-190</v>
+      </c>
+      <c r="C11">
+        <v>-185</v>
+      </c>
+      <c r="D11">
+        <v>-190</v>
+      </c>
+      <c r="E11">
+        <v>-184</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-180</v>
+      </c>
+      <c r="G11">
+        <v>-166</v>
+      </c>
+      <c r="H11">
+        <v>-161</v>
+      </c>
+      <c r="I11">
+        <v>-4.04</v>
+      </c>
+      <c r="J11">
+        <v>-7.28</v>
+      </c>
+      <c r="K11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-178</v>
+      </c>
+      <c r="C12">
+        <v>-185</v>
+      </c>
+      <c r="D12">
+        <v>-195</v>
+      </c>
+      <c r="E12">
+        <v>-184</v>
+      </c>
+      <c r="F12">
+        <v>-190</v>
+      </c>
+      <c r="G12">
+        <v>-167</v>
+      </c>
+      <c r="H12">
+        <v>-170</v>
+      </c>
+      <c r="I12">
+        <v>-1.66</v>
+      </c>
+      <c r="J12">
+        <v>-2.96</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>150</v>
+      </c>
+      <c r="C13">
+        <v>154</v>
+      </c>
+      <c r="D13">
+        <v>155</v>
+      </c>
+      <c r="E13">
+        <v>154</v>
+      </c>
+      <c r="F13" s="2">
+        <v>160</v>
+      </c>
+      <c r="G13">
+        <v>167</v>
+      </c>
+      <c r="H13">
+        <v>170</v>
+      </c>
+      <c r="I13">
+        <v>-3.7</v>
+      </c>
+      <c r="J13">
+        <v>-2.31</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>105</v>
+      </c>
+      <c r="C14" s="2">
+        <v>105</v>
+      </c>
+      <c r="D14">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>102</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>111</v>
+      </c>
+      <c r="H14">
+        <v>109</v>
+      </c>
+      <c r="I14">
+        <v>-1.91</v>
+      </c>
+      <c r="J14">
+        <v>-1.82</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
         <v>-125</v>
       </c>
-      <c r="D3">
-        <v>-122</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-118</v>
-      </c>
-      <c r="F3">
+      <c r="C15">
+        <v>-125</v>
+      </c>
+      <c r="D15">
+        <v>-124</v>
+      </c>
+      <c r="E15" s="2">
         <v>-120</v>
       </c>
-      <c r="G3">
+      <c r="F15" s="2">
         <v>-120</v>
       </c>
-      <c r="H3">
-        <v>0.77</v>
-      </c>
-      <c r="I3">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2">
-        <v>105</v>
-      </c>
-      <c r="C4" s="2">
-        <v>105</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>106</v>
-      </c>
-      <c r="H4">
-        <v>-0.49</v>
-      </c>
-      <c r="I4">
+      <c r="G15">
+        <v>-111</v>
+      </c>
+      <c r="H15">
+        <v>-109</v>
+      </c>
+      <c r="I15">
+        <v>-4.39</v>
+      </c>
+      <c r="J15">
+        <v>-5.26</v>
+      </c>
+      <c r="K15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>-140</v>
+      </c>
+      <c r="C16">
+        <v>-135</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-130</v>
+      </c>
+      <c r="E16">
+        <v>-132</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-130</v>
+      </c>
+      <c r="G16">
+        <v>-121</v>
+      </c>
+      <c r="H16">
+        <v>-119</v>
+      </c>
+      <c r="I16">
+        <v>-3.86</v>
+      </c>
+      <c r="J16">
+        <v>-5.02</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2">
+        <v>118</v>
+      </c>
+      <c r="C17">
+        <v>114</v>
+      </c>
+      <c r="D17">
+        <v>108</v>
+      </c>
+      <c r="E17">
+        <v>112</v>
+      </c>
+      <c r="F17">
+        <v>110</v>
+      </c>
+      <c r="G17">
+        <v>121</v>
+      </c>
+      <c r="H17">
+        <v>119</v>
+      </c>
+      <c r="I17">
         <v>-0.46</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>118</v>
-      </c>
-      <c r="C5" s="2">
-        <v>120</v>
-      </c>
-      <c r="D5">
-        <v>116</v>
-      </c>
-      <c r="E5">
-        <v>-240</v>
-      </c>
-      <c r="F5">
-        <v>115</v>
-      </c>
-      <c r="G5">
-        <v>123</v>
-      </c>
-      <c r="H5">
-        <v>-1.35</v>
-      </c>
-      <c r="I5">
-        <v>-1.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>-140</v>
-      </c>
-      <c r="C6">
-        <v>-142</v>
-      </c>
-      <c r="D6">
-        <v>-139</v>
-      </c>
-      <c r="E6" s="2">
-        <v>-110</v>
-      </c>
-      <c r="F6">
-        <v>-140</v>
-      </c>
-      <c r="G6">
-        <v>-139</v>
-      </c>
-      <c r="H6">
-        <v>11.03</v>
-      </c>
-      <c r="I6">
-        <v>12.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>158</v>
-      </c>
-      <c r="C7">
-        <v>154</v>
-      </c>
-      <c r="D7">
-        <v>155</v>
-      </c>
-      <c r="E7" s="2">
-        <v>198</v>
-      </c>
-      <c r="F7">
+      <c r="J17">
+        <v>-0.39</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>140</v>
+      </c>
+      <c r="C18">
+        <v>136</v>
+      </c>
+      <c r="D18" s="2">
+        <v>143</v>
+      </c>
+      <c r="E18">
+        <v>140</v>
+      </c>
+      <c r="F18">
+        <v>140</v>
+      </c>
+      <c r="G18">
+        <v>149</v>
+      </c>
+      <c r="H18">
+        <v>151</v>
+      </c>
+      <c r="I18">
+        <v>-3.19</v>
+      </c>
+      <c r="J18">
+        <v>-2.23</v>
+      </c>
+      <c r="K18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>-165</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-162</v>
+      </c>
+      <c r="D19">
+        <v>-175</v>
+      </c>
+      <c r="E19">
+        <v>-166</v>
+      </c>
+      <c r="F19">
+        <v>-170</v>
+      </c>
+      <c r="G19">
+        <v>-149</v>
+      </c>
+      <c r="H19">
+        <v>-151</v>
+      </c>
+      <c r="I19">
+        <v>-2.71</v>
+      </c>
+      <c r="J19">
+        <v>-4.38</v>
+      </c>
+      <c r="K19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20">
+        <v>-480</v>
+      </c>
+      <c r="C20">
+        <v>-575</v>
+      </c>
+      <c r="D20">
+        <v>-455</v>
+      </c>
+      <c r="E20">
+        <v>-510</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-425</v>
+      </c>
+      <c r="G20">
+        <v>-392</v>
+      </c>
+      <c r="H20">
+        <v>-348</v>
+      </c>
+      <c r="I20">
+        <v>-4.04</v>
+      </c>
+      <c r="J20">
+        <v>-17.19</v>
+      </c>
+      <c r="K20">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>360</v>
+      </c>
+      <c r="C21" s="2">
+        <v>425</v>
+      </c>
+      <c r="D21">
+        <v>350</v>
+      </c>
+      <c r="E21">
+        <v>390</v>
+      </c>
+      <c r="F21">
+        <v>330</v>
+      </c>
+      <c r="G21">
+        <v>392</v>
+      </c>
+      <c r="H21">
+        <v>348</v>
+      </c>
+      <c r="I21">
+        <v>17.19</v>
+      </c>
+      <c r="J21">
+        <v>4.04</v>
+      </c>
+      <c r="K21">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>-170</v>
+      </c>
+      <c r="C22">
+        <v>-180</v>
+      </c>
+      <c r="D22">
+        <v>-175</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-164</v>
+      </c>
+      <c r="F22">
+        <v>-170</v>
+      </c>
+      <c r="G22">
+        <v>-153</v>
+      </c>
+      <c r="H22">
+        <v>-151</v>
+      </c>
+      <c r="I22">
+        <v>-3.16</v>
+      </c>
+      <c r="J22">
+        <v>-5.18</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>143</v>
+      </c>
+      <c r="C23" s="2">
         <v>150</v>
       </c>
-      <c r="G7">
-        <v>162</v>
-      </c>
-      <c r="H7">
-        <v>13.74</v>
-      </c>
-      <c r="I7">
-        <v>6.94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="D23">
+        <v>140</v>
+      </c>
+      <c r="E23">
+        <v>138</v>
+      </c>
+      <c r="F23">
+        <v>140</v>
+      </c>
+      <c r="G23">
+        <v>153</v>
+      </c>
+      <c r="H23">
+        <v>151</v>
+      </c>
+      <c r="I23">
+        <v>-0.4</v>
+      </c>
+      <c r="J23">
+        <v>-0.27</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2">
+        <v>140</v>
+      </c>
+      <c r="C24">
+        <v>130</v>
+      </c>
+      <c r="D24">
+        <v>133</v>
+      </c>
+      <c r="E24">
+        <v>132</v>
+      </c>
+      <c r="F24" s="2">
+        <v>140</v>
+      </c>
+      <c r="G24">
+        <v>145</v>
+      </c>
+      <c r="H24">
+        <v>151</v>
+      </c>
+      <c r="I24">
+        <v>-4.38</v>
+      </c>
+      <c r="J24">
+        <v>-3.13</v>
+      </c>
+      <c r="K24">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>-190</v>
-      </c>
-      <c r="C8">
-        <v>-185</v>
-      </c>
-      <c r="D8">
-        <v>-190</v>
-      </c>
-      <c r="E8" s="2">
-        <v>-106</v>
-      </c>
-      <c r="F8">
-        <v>-180</v>
-      </c>
-      <c r="G8">
-        <v>-186</v>
-      </c>
-      <c r="H8">
-        <v>26.39</v>
-      </c>
-      <c r="I8">
-        <v>27.97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>-178</v>
-      </c>
-      <c r="C9">
-        <v>-185</v>
-      </c>
-      <c r="D9">
-        <v>-195</v>
-      </c>
-      <c r="E9" s="2">
-        <v>172</v>
-      </c>
-      <c r="F9">
-        <v>-190</v>
-      </c>
-      <c r="G9">
-        <v>-194</v>
-      </c>
-      <c r="H9">
-        <v>79.48</v>
-      </c>
-      <c r="I9">
-        <v>46.21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
-        <v>105</v>
-      </c>
-      <c r="C10" s="2">
-        <v>105</v>
-      </c>
-      <c r="D10">
-        <v>102</v>
-      </c>
-      <c r="E10">
-        <v>102</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>102</v>
-      </c>
-      <c r="H10">
-        <v>1.49</v>
-      </c>
-      <c r="I10">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>-125</v>
-      </c>
-      <c r="C11">
-        <v>-125</v>
-      </c>
-      <c r="D11">
-        <v>-124</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-120</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-120</v>
-      </c>
-      <c r="G11">
-        <v>-115</v>
-      </c>
-      <c r="H11">
-        <v>-1.94</v>
-      </c>
-      <c r="I11">
-        <v>-2.33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>118</v>
-      </c>
-      <c r="C12">
-        <v>114</v>
-      </c>
-      <c r="D12">
-        <v>108</v>
-      </c>
-      <c r="E12" s="2">
-        <v>142</v>
-      </c>
-      <c r="F12">
-        <v>110</v>
-      </c>
-      <c r="G12">
-        <v>117</v>
-      </c>
-      <c r="H12">
-        <v>11.52</v>
-      </c>
-      <c r="I12">
-        <v>8.109999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>-480</v>
-      </c>
-      <c r="C13">
-        <v>-575</v>
-      </c>
-      <c r="D13">
-        <v>-455</v>
-      </c>
-      <c r="E13">
-        <v>-510</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-425</v>
-      </c>
-      <c r="G13">
-        <v>-489</v>
-      </c>
-      <c r="H13">
-        <v>2.56</v>
-      </c>
-      <c r="I13">
-        <v>10.87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>360</v>
-      </c>
-      <c r="C14" s="2">
-        <v>425</v>
-      </c>
-      <c r="D14">
-        <v>350</v>
-      </c>
-      <c r="E14">
-        <v>390</v>
-      </c>
-      <c r="F14">
-        <v>330</v>
-      </c>
-      <c r="G14">
-        <v>382</v>
-      </c>
-      <c r="H14">
-        <v>8.92</v>
-      </c>
-      <c r="I14">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2">
-        <v>140</v>
-      </c>
-      <c r="C15">
-        <v>130</v>
-      </c>
-      <c r="D15">
-        <v>133</v>
-      </c>
-      <c r="E15">
-        <v>132</v>
-      </c>
-      <c r="F15" s="2">
-        <v>140</v>
-      </c>
-      <c r="G15">
-        <v>138</v>
-      </c>
-      <c r="H15">
-        <v>0.84</v>
-      </c>
-      <c r="I15">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
         <v>-165</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C25" s="2">
         <v>-155</v>
       </c>
-      <c r="D16">
+      <c r="D25">
         <v>-162</v>
       </c>
-      <c r="E16">
+      <c r="E25">
         <v>-158</v>
       </c>
-      <c r="F16">
+      <c r="F25">
         <v>-170</v>
       </c>
-      <c r="G16">
-        <v>-153</v>
-      </c>
-      <c r="H16">
-        <v>-0.51</v>
-      </c>
-      <c r="I16">
-        <v>-0.79</v>
+      <c r="G25">
+        <v>-145</v>
+      </c>
+      <c r="H25">
+        <v>-151</v>
+      </c>
+      <c r="I25">
+        <v>-1.03</v>
+      </c>
+      <c r="J25">
+        <v>-1.59</v>
+      </c>
+      <c r="K25">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -950,37 +1394,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="1" priority="47" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="57" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="1" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="68" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="1" priority="65" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="79" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="1" priority="90" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="cellIs" dxfId="1" priority="101" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="cellIs" dxfId="1" priority="112" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="cellIs" dxfId="1" priority="123" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="46" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -990,37 +1454,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="1" priority="48" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="58" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="1" priority="57" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="69" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="1" priority="66" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="80" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="1" priority="91" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="cellIs" dxfId="1" priority="102" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="cellIs" dxfId="1" priority="113" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="cellIs" dxfId="1" priority="124" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="25" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="36" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="1" priority="39" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="47" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1030,37 +1514,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="1" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="59" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="1" priority="58" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="70" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="1" priority="67" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="81" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="cellIs" dxfId="1" priority="92" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="1" priority="103" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="1" priority="114" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="cellIs" dxfId="1" priority="125" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="1" priority="31" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="37" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="48" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1070,37 +1574,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="60" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="1" priority="59" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="71" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="1" priority="68" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="82" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="1" priority="93" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="1" priority="104" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="cellIs" dxfId="1" priority="115" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="cellIs" dxfId="1" priority="126" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="27" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="1" priority="41" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="49" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1110,37 +1634,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="1" priority="51" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="61" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="72" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="1" priority="69" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="83" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="1" priority="94" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="1" priority="105" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="1" priority="116" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="1" priority="127" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="1" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="39" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="50" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1150,37 +1694,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="62" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="1" priority="61" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="73" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="1" priority="70" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="84" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="1" priority="95" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="1" priority="106" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="1" priority="117" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="1" priority="128" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="40" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="1" priority="43" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="51" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1190,37 +1754,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="63" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="1" priority="62" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="74" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="1" priority="71" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="85" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="1" priority="96" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="1" priority="107" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="1" priority="118" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="1" priority="129" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="30" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="41" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="52" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1230,82 +1814,242 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="1" priority="54" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="64" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="1" priority="63" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="75" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="1" priority="72" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:I16">
+    <cfRule type="cellIs" dxfId="1" priority="86" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="1" priority="97" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="1" priority="108" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="cellIs" dxfId="1" priority="119" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="1" priority="130" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="1" priority="31" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="1" priority="42" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="1" priority="53" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="1" priority="65" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="1" priority="76" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" dxfId="1" priority="87" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="1" priority="98" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="1" priority="109" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="cellIs" dxfId="1" priority="120" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="cellIs" dxfId="1" priority="131" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="1" priority="27" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="1" priority="36" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" dxfId="1" priority="43" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="cellIs" dxfId="1" priority="54" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="1" priority="66" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="1" priority="77" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="1" priority="88" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="cellIs" dxfId="1" priority="99" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="1" priority="110" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="cellIs" dxfId="1" priority="121" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="cellIs" dxfId="1" priority="132" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="cellIs" dxfId="1" priority="33" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="1" priority="55" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="1" priority="67" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="cellIs" dxfId="1" priority="78" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="cellIs" dxfId="1" priority="89" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="cellIs" dxfId="1" priority="100" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="cellIs" dxfId="1" priority="111" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="cellIs" dxfId="1" priority="122" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="cellIs" dxfId="1" priority="133" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="1" priority="34" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
     <cfRule type="cellIs" dxfId="1" priority="45" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="1" priority="55" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="1" priority="64" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="1" priority="73" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="1" priority="46" operator="notEqual">
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" dxfId="1" priority="56" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
